--- a/Maestro_MUN_COM_PROV.xlsx
+++ b/Maestro_MUN_COM_PROV.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rubén\Dropbox\Dades\Scripts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joana.APCE\Dropbox\Dades\APP Dades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5063D50-940A-4208-9108-36C6C85767DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54BE871B-C791-449F-AF1A-C930B7AA8916}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{768499FD-7CAC-4631-BFC2-A464066D4BA0}"/>
+    <workbookView xWindow="28680" yWindow="-60" windowWidth="29040" windowHeight="15840" xr2:uid="{768499FD-7CAC-4631-BFC2-A464066D4BA0}"/>
   </bookViews>
   <sheets>
     <sheet name="Maestro" sheetId="1" r:id="rId1"/>
@@ -24,9 +24,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -6218,8 +6221,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9A135BF-3070-49BE-ABC9-48E5736ED01C}">
   <dimension ref="A1:D948"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A456" workbookViewId="0">
-      <selection activeCell="R463" sqref="R461:S463"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="C80" sqref="C80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
